--- a/Data/交易表.xlsx
+++ b/Data/交易表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA2F063-8F06-40D5-B4FC-E6DF9EB3D548}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB08A37-7CC6-4C61-BB5C-F3D9551C865A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
